--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43097,6 +43097,41 @@
         <v>15000</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>160000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43132,6 +43132,43 @@
         <v>160000</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1219" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43169,6 +43169,43 @@
         </is>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1220" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43206,6 +43206,43 @@
         </is>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1221" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43243,6 +43243,41 @@
         </is>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>80100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43278,6 +43278,43 @@
         <v>80100</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1223" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43315,6 +43315,43 @@
         </is>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1224" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43352,6 +43352,41 @@
         </is>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>85000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43387,6 +43387,41 @@
         <v>85000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>315000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43422,6 +43422,41 @@
         <v>315000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>29100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43457,6 +43457,41 @@
         <v>29100</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>100100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43492,6 +43492,41 @@
         <v>100100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>76100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43527,6 +43527,78 @@
         <v>76100</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="I1230" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>20598900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43599,6 +43599,76 @@
         <v>20598900</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>10986800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>880000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43669,6 +43669,43 @@
         <v>880000</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1234" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43706,6 +43706,43 @@
         </is>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1235" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43743,6 +43743,41 @@
         </is>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>100000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43778,6 +43778,41 @@
         <v>100000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>950000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43813,6 +43813,78 @@
         <v>950000</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1238" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>6878100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5194.xlsx
+++ b/data/5194.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2101"/>
+  <dimension ref="A1:I2102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -74055,6 +74055,43 @@
         <v>6878100</v>
       </c>
     </row>
+    <row r="2102">
+      <c r="A2102" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2102" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2102" t="inlineStr">
+        <is>
+          <t>5194</t>
+        </is>
+      </c>
+      <c r="D2102" t="inlineStr">
+        <is>
+          <t>APFT</t>
+        </is>
+      </c>
+      <c r="E2102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="F2102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="G2102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H2102" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="I2102" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
